--- a/documents/Plan.xlsx
+++ b/documents/Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
   <si>
     <t>No</t>
   </si>
@@ -74,6 +74,9 @@
     <t>https://matadornetwork.com/</t>
   </si>
   <si>
+    <t>https://www.hahalolo.com/</t>
+  </si>
+  <si>
     <t>https://www.mightynetworks.com/</t>
   </si>
   <si>
@@ -157,9 +160,6 @@
     <t>Test logic error</t>
   </si>
   <si>
-    <t>Fix warning</t>
-  </si>
-  <si>
     <t>Write a report</t>
   </si>
   <si>
@@ -167,13 +167,22 @@
   </si>
   <si>
     <t>Power Point</t>
+  </si>
+  <si>
+    <t>Fix warning/bug/function</t>
+  </si>
+  <si>
+    <t>Receive contributions &amp; correct reports / projects as instructed by teachers</t>
+  </si>
+  <si>
+    <t>Decentralization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +215,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -272,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,23 +308,26 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -591,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -610,66 +629,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="A1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="3" t="s">
         <v>2</v>
       </c>
@@ -711,21 +730,21 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
         <v>1.1000000000000001</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="5" t="s">
         <v>10</v>
       </c>
@@ -743,19 +762,19 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="5" t="s">
         <v>10</v>
       </c>
@@ -770,22 +789,22 @@
         <v>44077</v>
       </c>
       <c r="P6" s="6">
-        <v>44084</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="s">
         <v>10</v>
@@ -800,196 +819,202 @@
         <v>44077</v>
       </c>
       <c r="P7" s="6">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="6">
+        <v>44077</v>
+      </c>
+      <c r="N8" s="6">
         <v>44084</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="O8" s="6">
+        <v>44077</v>
+      </c>
+      <c r="P8" s="6">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>1.2</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="6">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6">
         <v>44084</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N9" s="6">
         <v>44087</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O9" s="6">
         <v>44084</v>
       </c>
-      <c r="P8" s="6">
-        <v>44087</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="P9" s="6">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>1.3</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="6">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="6">
         <v>44077</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N10" s="6">
         <v>44080</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O10" s="6">
         <v>44077</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P10" s="6">
         <v>44080</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="11" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="B11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <v>2.1</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="6">
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="6">
         <v>44089</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N12" s="6">
         <v>44094</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="6">
+      <c r="O12" s="6">
+        <v>44089</v>
+      </c>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="6">
         <v>44094</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N13" s="6">
         <v>44099</v>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="6">
-        <v>44099</v>
-      </c>
-      <c r="N13" s="6">
-        <v>44104</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="5"/>
       <c r="M14" s="6">
         <v>44099</v>
       </c>
@@ -1000,48 +1025,46 @@
       <c r="P14" s="5"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="M15" s="6">
-        <v>44105</v>
+        <v>44099</v>
       </c>
       <c r="N15" s="6">
-        <v>44124</v>
+        <v>44104</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="A16" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="5" t="s">
         <v>10</v>
       </c>
@@ -1058,20 +1081,18 @@
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
       <c r="K17" s="5" t="s">
         <v>10</v>
       </c>
@@ -1079,163 +1100,163 @@
         <v>10</v>
       </c>
       <c r="M17" s="6">
-        <v>44094</v>
+        <v>44105</v>
       </c>
       <c r="N17" s="6">
-        <v>44109</v>
+        <v>44124</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="6">
+        <v>44094</v>
+      </c>
+      <c r="N18" s="6">
+        <v>44109</v>
+      </c>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="B19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>3.1</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="6">
+      <c r="B20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="6">
         <v>44110</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N20" s="6">
         <v>44114</v>
-      </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="1:16" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" s="6">
-        <v>44125</v>
-      </c>
-      <c r="N20" s="6">
-        <v>44145</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+    <row r="21" spans="1:16" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="6">
+        <v>44125</v>
+      </c>
+      <c r="N21" s="6">
+        <v>44145</v>
+      </c>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M22" s="6">
-        <v>44136</v>
-      </c>
-      <c r="N22" s="6">
-        <v>44140</v>
-      </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <v>4.2</v>
-      </c>
-      <c r="B23" s="10" t="s">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
       <c r="K23" s="5" t="s">
         <v>10</v>
       </c>
@@ -1243,29 +1264,29 @@
         <v>10</v>
       </c>
       <c r="M23" s="6">
-        <v>44141</v>
+        <v>44136</v>
       </c>
       <c r="N23" s="6">
-        <v>44150</v>
+        <v>44140</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="B24" s="10" t="s">
+        <v>4.2</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
       <c r="K24" s="5" t="s">
         <v>10</v>
       </c>
@@ -1276,26 +1297,26 @@
         <v>44141</v>
       </c>
       <c r="N24" s="6">
-        <v>44171</v>
+        <v>44150</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B25" s="10" t="s">
+        <v>4.3</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
       <c r="K25" s="5" t="s">
         <v>10</v>
       </c>
@@ -1303,51 +1324,59 @@
         <v>10</v>
       </c>
       <c r="M25" s="6">
-        <v>44172</v>
+        <v>44141</v>
       </c>
       <c r="N25" s="6">
-        <v>44550</v>
+        <v>44155</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>5</v>
-      </c>
-      <c r="B26" s="9" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" s="6">
+        <v>44145</v>
+      </c>
+      <c r="N26" s="6">
+        <v>44525</v>
+      </c>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+        <v>4.5</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
       <c r="K27" s="5" t="s">
         <v>10</v>
       </c>
@@ -1355,59 +1384,51 @@
         <v>10</v>
       </c>
       <c r="M27" s="6">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="N27" s="6">
-        <v>43835</v>
+        <v>44527</v>
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>5.2</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M28" s="6">
-        <v>44186</v>
-      </c>
-      <c r="N28" s="6">
-        <v>43835</v>
-      </c>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
+    <row r="28" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>5</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
-        <v>5.3</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
       <c r="K29" s="5" t="s">
         <v>10</v>
       </c>
@@ -1415,51 +1436,59 @@
         <v>10</v>
       </c>
       <c r="M29" s="6">
-        <v>44186</v>
+        <v>44163</v>
       </c>
       <c r="N29" s="6">
-        <v>43835</v>
+        <v>44170</v>
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>6</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" s="6">
+        <v>44163</v>
+      </c>
+      <c r="N30" s="6">
+        <v>44170</v>
+      </c>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
-        <v>6.1</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+        <v>5.3</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
       <c r="K31" s="5" t="s">
         <v>10</v>
       </c>
@@ -1467,81 +1496,81 @@
         <v>10</v>
       </c>
       <c r="M31" s="6">
-        <v>43836</v>
+        <v>44163</v>
       </c>
       <c r="N31" s="6">
-        <v>43838</v>
+        <v>44170</v>
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>6.2</v>
-      </c>
-      <c r="B32" s="10" t="s">
+    <row r="32" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>6</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>6.1</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M32" s="6">
-        <v>43836</v>
-      </c>
-      <c r="N32" s="6">
-        <v>43838</v>
-      </c>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>7</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="6">
+        <v>44171</v>
+      </c>
+      <c r="N33" s="6">
+        <v>44173</v>
+      </c>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
-        <v>7.1</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
+        <v>6.2</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
       <c r="K34" s="5" t="s">
         <v>10</v>
       </c>
@@ -1549,81 +1578,81 @@
         <v>10</v>
       </c>
       <c r="M34" s="6">
-        <v>43839</v>
+        <v>44171</v>
       </c>
       <c r="N34" s="6">
-        <v>43842</v>
+        <v>44173</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="B35" s="10" t="s">
+    <row r="35" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>7</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>7.1</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M35" s="6">
-        <v>43839</v>
-      </c>
-      <c r="N35" s="6">
-        <v>43842</v>
-      </c>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-    </row>
-    <row r="36" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>8</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" s="6">
+        <v>44174</v>
+      </c>
+      <c r="N36" s="6">
+        <v>44180</v>
+      </c>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
-        <v>8.1</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
+        <v>7.2</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
       <c r="K37" s="5" t="s">
         <v>10</v>
       </c>
@@ -1631,92 +1660,179 @@
         <v>10</v>
       </c>
       <c r="M37" s="6">
-        <v>43831</v>
+        <v>44174</v>
       </c>
       <c r="N37" s="6">
-        <v>44114</v>
+        <v>44180</v>
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+    <row r="38" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>8</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M39" s="6">
+        <v>44175</v>
+      </c>
+      <c r="N39" s="6">
+        <v>44181</v>
+      </c>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M38" s="6">
-        <v>43831</v>
-      </c>
-      <c r="N38" s="6">
-        <v>44114</v>
-      </c>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M40" s="6">
+        <v>44084</v>
+      </c>
+      <c r="N40" s="6">
+        <v>44179</v>
+      </c>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M41" s="6">
+        <v>44181</v>
+      </c>
+      <c r="N41" s="6">
+        <v>44191</v>
+      </c>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B25:J25"/>
+  <mergeCells count="43">
+    <mergeCell ref="B41:J41"/>
     <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="A1:T2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
     <mergeCell ref="B20:J20"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="B22:J22"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="A1:T2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B36:J36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
     <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/documents/Plan.xlsx
+++ b/documents/Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Basesource\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -314,20 +314,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -629,66 +629,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:20" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
       <c r="K3" s="3" t="s">
         <v>2</v>
       </c>
@@ -712,17 +712,17 @@
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -734,7 +734,7 @@
       <c r="A5" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="8"/>
@@ -764,7 +764,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="8"/>
@@ -794,7 +794,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="8"/>
@@ -824,7 +824,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="8"/>
@@ -886,7 +886,7 @@
       <c r="A10" s="5">
         <v>1.3</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="8"/>
@@ -920,17 +920,17 @@
       <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -968,7 +968,9 @@
       <c r="O12" s="6">
         <v>44089</v>
       </c>
-      <c r="P12" s="5"/>
+      <c r="P12" s="6">
+        <v>44099</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
@@ -995,7 +997,9 @@
       <c r="N13" s="6">
         <v>44099</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="6">
+        <v>44094</v>
+      </c>
       <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -1021,7 +1025,9 @@
       <c r="N14" s="6">
         <v>44104</v>
       </c>
-      <c r="O14" s="5"/>
+      <c r="O14" s="6">
+        <v>44099</v>
+      </c>
       <c r="P14" s="5"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -1047,7 +1053,9 @@
       <c r="N15" s="6">
         <v>44104</v>
       </c>
-      <c r="O15" s="5"/>
+      <c r="O15" s="6">
+        <v>44099</v>
+      </c>
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -1077,7 +1085,9 @@
       <c r="N16" s="6">
         <v>44124</v>
       </c>
-      <c r="O16" s="5"/>
+      <c r="O16" s="6">
+        <v>44105</v>
+      </c>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1142,17 +1152,17 @@
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -1194,7 +1204,7 @@
       <c r="A21" s="5">
         <v>3.2</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="8"/>
@@ -1224,17 +1234,17 @@
       <c r="A22" s="4">
         <v>4</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -1396,17 +1406,17 @@
       <c r="A28" s="4">
         <v>5</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -1508,17 +1518,17 @@
       <c r="A32" s="4">
         <v>6</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -1590,17 +1600,17 @@
       <c r="A35" s="4">
         <v>7</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -1672,17 +1682,17 @@
       <c r="A38" s="4">
         <v>8</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -1782,6 +1792,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B26:J26"/>
     <mergeCell ref="A1:T2"/>
@@ -1798,33 +1835,6 @@
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B36:J36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
